--- a/testData/command_rule_test_data.xlsx
+++ b/testData/command_rule_test_data.xlsx
@@ -401,10 +401,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>cyyf</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>选择序号为2的进行删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -422,6 +418,10 @@
   </si>
   <si>
     <t>show</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyye</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -17357,10 +17357,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -17834,7 +17834,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>61</v>
@@ -17851,7 +17851,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>61</v>
@@ -17877,7 +17877,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17961,10 +17961,10 @@
         <v>62</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
